--- a/configTools/Luban/ConfigRoot/Datas/weapon.xlsx
+++ b/configTools/Luban/ConfigRoot/Datas/weapon.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="27945" windowHeight="11925" tabRatio="600" firstSheet="1" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="weapon" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="player_weapon_index" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="怪物武器挂载坐标辅助表" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="角色武器配置辅助表" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="weapon" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="player_weapon_index" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="怪物武器挂载坐标辅助表" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="角色武器配置辅助表" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId5"/>
-    <externalReference r:id="rId6"/>
-    <externalReference r:id="rId7"/>
-    <externalReference r:id="rId8"/>
+    <externalReference xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+    <externalReference xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+    <externalReference xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+    <externalReference xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
   </externalReferences>
   <definedNames>
     <definedName name="float_text_type">[3]配置参数!$A$169:$A$180</definedName>
@@ -1313,8 +1313,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="世界观"/>
       <sheetName val="主角"/>
@@ -1926,8 +1926,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="总览"/>
       <sheetName val="全局资产数值框架"/>
@@ -3260,8 +3260,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="data"/>
       <sheetName val="←导出中转←"/>
@@ -3285,8 +3285,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="user_avatar|玩家名片"/>
       <sheetName val="user_variable|玩家属性"/>
@@ -3583,7 +3583,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -8034,12 +8034,12 @@
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -8291,7 +8291,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 

--- a/configTools/Luban/ConfigRoot/Datas/weapon.xlsx
+++ b/configTools/Luban/ConfigRoot/Datas/weapon.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="27945" windowHeight="11925" tabRatio="600" firstSheet="1" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="weapon" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="player_weapon_index" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="怪物武器挂载坐标辅助表" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="角色武器配置辅助表" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="weapon" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="player_weapon_index" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="怪物武器挂载坐标辅助表" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="角色武器配置辅助表" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <externalReferences>
-    <externalReference xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
-    <externalReference xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
-    <externalReference xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
-    <externalReference xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+    <externalReference r:id="rId5"/>
+    <externalReference r:id="rId6"/>
+    <externalReference r:id="rId7"/>
+    <externalReference r:id="rId8"/>
   </externalReferences>
   <definedNames>
     <definedName name="float_text_type">[3]配置参数!$A$169:$A$180</definedName>
@@ -1313,8 +1313,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook r:id="rId1">
     <sheetNames>
       <sheetName val="世界观"/>
       <sheetName val="主角"/>
@@ -1926,8 +1926,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook r:id="rId1">
     <sheetNames>
       <sheetName val="总览"/>
       <sheetName val="全局资产数值框架"/>
@@ -3260,8 +3260,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook r:id="rId1">
     <sheetNames>
       <sheetName val="data"/>
       <sheetName val="←导出中转←"/>
@@ -3285,8 +3285,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook r:id="rId1">
     <sheetNames>
       <sheetName val="user_avatar|玩家名片"/>
       <sheetName val="user_variable|玩家属性"/>

--- a/configTools/Luban/ConfigRoot/Datas/weapon.xlsx
+++ b/configTools/Luban/ConfigRoot/Datas/weapon.xlsx
@@ -3583,7 +3583,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -8034,12 +8034,12 @@
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -8291,7 +8291,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
